--- a/接口文档/订单api/订单api-商户端.xlsx
+++ b/接口文档/订单api/订单api-商户端.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="订单详情接口" sheetId="4" r:id="rId4"/>
     <sheet name="确认发货接口" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="191">
   <si>
     <t>订单接口（APP端）
 版本：1.0
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>接口地址：</t>
-  </si>
-  <si>
-    <t>http://192.168.1.117/api/order_edit/v1/orderList?page=1&amp;size=5&amp;status=1</t>
   </si>
   <si>
     <t>请求方式：</t>
@@ -104,7 +101,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -130,7 +127,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">2 </t>
     </r>
@@ -153,7 +150,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">3 </t>
     </r>
@@ -179,7 +176,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">4 </t>
     </r>
@@ -202,7 +199,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">5 </t>
     </r>
@@ -500,9 +497,6 @@
 </t>
   </si>
   <si>
-    <t>http://192.168.1.117/api/order_edit/v1/{order_code}</t>
-  </si>
-  <si>
     <t>order_code</t>
   </si>
   <si>
@@ -676,19 +670,29 @@
   </si>
   <si>
     <t xml:space="preserve">        "modifyTime": 1478696674913</t>
+  </si>
+  <si>
+    <t>sellerId</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>小区ID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.117/api/order_edit/v1/orderList?page=1&amp;size=5&amp;status=1&amp;sellerId=1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.1.117/api/order_edit/v1/{order_code}/{sellerId}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,7 +731,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -743,157 +747,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -906,188 +780,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1215,254 +909,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1471,32 +926,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1504,25 +935,7 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1530,12 +943,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1561,60 +968,67 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1904,8 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="H17:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1915,222 +1328,221 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="17" spans="8:15">
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
     </row>
     <row r="18" spans="8:15">
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
     </row>
     <row r="19" spans="8:15">
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
     </row>
     <row r="20" spans="8:15">
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
     </row>
     <row r="21" spans="8:15">
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
     </row>
     <row r="22" spans="8:15">
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="8:15">
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
     </row>
     <row r="24" spans="8:15">
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
     </row>
     <row r="25" spans="8:15">
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
     </row>
     <row r="26" spans="8:15">
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
     </row>
     <row r="27" spans="8:15">
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
     </row>
     <row r="28" spans="8:15">
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
     </row>
     <row r="29" spans="8:15">
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
     </row>
     <row r="30" spans="8:15">
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
     </row>
     <row r="31" spans="8:15">
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
     </row>
     <row r="32" spans="8:15">
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
     </row>
     <row r="33" spans="8:15">
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
     </row>
     <row r="34" spans="8:15">
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H17:O34"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2138,7 +1550,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="30">
+      <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2146,7 +1558,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="30">
+      <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2154,26 +1566,25 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G211"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -2182,1207 +1593,1219 @@
     <col min="5" max="5" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:7">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" ht="15" spans="1:7">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="15">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" ht="15" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="15">
+      <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" ht="15" spans="1:7">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
+      <c r="A5" s="26"/>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.5">
+      <c r="A6" s="26"/>
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="10"/>
-      <c r="B6" s="24" t="s">
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.5">
+      <c r="A7" s="26"/>
+      <c r="B7" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="E7" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="16.5">
+      <c r="A8" s="26"/>
+      <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="21"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="10"/>
-      <c r="B7" s="24" t="s">
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="F8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.5">
+      <c r="A9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.5">
+      <c r="A10" s="26"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="21"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="25" t="s">
+      <c r="E10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:7">
-      <c r="A9" s="10"/>
-      <c r="B9" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="F10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.5">
+      <c r="A11" s="26"/>
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:7">
-      <c r="A10" s="10"/>
-      <c r="B10" s="19" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.5">
+      <c r="A12" s="26"/>
+      <c r="B12" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:7">
-      <c r="A11" s="10"/>
-      <c r="B11" s="16" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="25" t="s">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.5">
+      <c r="A13" s="26"/>
+      <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:7">
-      <c r="A12" s="10"/>
-      <c r="B12" s="21" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5">
+      <c r="A14" s="27"/>
+      <c r="B14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:7">
-      <c r="A13" s="22"/>
-      <c r="B13" s="21" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:7">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:7">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21" t="s">
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="16.5">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:7">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:7">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:7">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.5">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:7">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.5">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:7">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.5">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:7">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21" t="s">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21" t="s">
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21" t="s">
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21" t="s">
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21" t="s">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21" t="s">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21" t="s">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="21"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21" t="s">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21" t="s">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21" t="s">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="7"/>
+      <c r="B55" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21" t="s">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21" t="s">
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21" t="s">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21" t="s">
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="21"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21" t="s">
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="21"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21" t="s">
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21" t="s">
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21" t="s">
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21" t="s">
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="21"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21" t="s">
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21" t="s">
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="B74" t="s">
         <v>88</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" t="s">
+    </row>
+    <row r="75" spans="1:7">
+      <c r="B75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="B76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="B77" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2">
-      <c r="B75" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2">
-      <c r="B76" t="s">
+    <row r="78" spans="1:7">
+      <c r="B78" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" t="s">
+    <row r="79" spans="1:7">
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="B80" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
     </row>
     <row r="144" spans="2:2">
@@ -3392,227 +2815,227 @@
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>112</v>
+        <v>46</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
     </row>
     <row r="190" spans="2:2">
@@ -3622,138 +3045,142 @@
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A14"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/order_edit/v1/orderList?page=1&amp;size=5&amp;status=1" tooltip="http://192.168.1.117/api/order_edit/v1/orderList?page=1&amp;size=5&amp;status=1"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://192.168.1.117/api/order_edit/v1/orderList?page=1&amp;size=5&amp;status=1" display="http://192.168.1.117/api/order_edit/v1/orderList?page=1&amp;size=5&amp;status=1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:E59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
@@ -3762,403 +3189,417 @@
     <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="15" spans="1:5">
+      <c r="B1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5">
+      <c r="A5" s="26"/>
+      <c r="B5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" ht="15" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" ht="15" spans="1:5">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5">
+      <c r="A7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5">
+      <c r="A8" s="26"/>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="26"/>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="26"/>
+      <c r="B10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" ht="16.5">
+      <c r="A11" s="26"/>
+      <c r="B11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5">
+      <c r="A12" s="27"/>
+      <c r="B12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="11" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="10"/>
-      <c r="B8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="10"/>
-      <c r="B9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="22"/>
-      <c r="B11" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>165</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>128</v>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A12"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/order_edit/v1/{order_code}" tooltip="http://192.168.1.117/api/order_edit/v1/{order_code}"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://192.168.1.117/api/order_edit/v1/{order_code}" display="http://192.168.1.117/api/order_edit/v1/{order_code}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -4167,427 +3608,427 @@
     <col min="5" max="5" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" ht="15" spans="1:5">
+      <c r="B1" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5">
+      <c r="A5" s="26"/>
+      <c r="B5" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" ht="15" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="26"/>
+      <c r="B6" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" ht="15" spans="1:5">
-      <c r="A4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="E6" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5">
+      <c r="A7" s="26"/>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11" t="s">
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="26"/>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5">
+      <c r="A11" s="26"/>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5">
+      <c r="A12" s="26"/>
+      <c r="B12" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5">
+      <c r="A13" s="26"/>
+      <c r="B13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="16.5">
+      <c r="A14" s="27"/>
+      <c r="B14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="10"/>
-      <c r="B10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="10"/>
-      <c r="B11" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="10"/>
-      <c r="B13" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
+    <row r="16" spans="1:5">
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:A14"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:A14"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/order_edit/v1/deliverGoods/{orderCode}" tooltip="http://192.168.1.117/api/order_edit/v1/deliverGoods/{orderCode}"/>
+    <hyperlink ref="B2" r:id="rId1" tooltip="http://192.168.1.117/api/order_edit/v1/deliverGoods/{orderCode}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/接口文档/订单api/订单api-商户端.xlsx
+++ b/接口文档/订单api/订单api-商户端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -968,6 +968,15 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -993,15 +1002,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1580,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1597,12 +1597,12 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
     </row>
@@ -1610,12 +1610,12 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
@@ -1623,17 +1623,17 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1652,7 +1652,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="16.5">
-      <c r="A5" s="26"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1669,7 +1669,7 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="16.5">
-      <c r="A6" s="26"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="16.5">
-      <c r="A7" s="26"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="8" t="s">
         <v>187</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="16.5">
-      <c r="A8" s="26"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
@@ -1722,22 +1722,22 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="16.5">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="9" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="16.5">
-      <c r="A10" s="26"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="16.5">
-      <c r="A11" s="26"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
@@ -1771,20 +1771,20 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="16.5">
-      <c r="A12" s="26"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="9" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="16.5">
-      <c r="A13" s="26"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
@@ -1795,7 +1795,7 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="16.5">
-      <c r="A14" s="27"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="7" t="s">
         <v>36</v>
       </c>
@@ -3176,8 +3176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3193,37 +3193,37 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3240,7 +3240,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5">
-      <c r="A5" s="26"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>129</v>
       </c>
@@ -3270,18 +3270,18 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:5" ht="16.5">
-      <c r="A8" s="26"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
@@ -3294,7 +3294,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5">
-      <c r="A9" s="26"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="5" t="s">
         <v>30</v>
       </c>
@@ -3307,16 +3307,16 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5">
-      <c r="A10" s="26"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" ht="16.5">
-      <c r="A11" s="26"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="7" t="s">
         <v>35</v>
       </c>
@@ -3325,7 +3325,7 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="16.5">
-      <c r="A12" s="27"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="7" t="s">
         <v>36</v>
       </c>
@@ -3612,12 +3612,12 @@
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="1" t="s">
@@ -3626,23 +3626,23 @@
       <c r="B2" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3659,7 +3659,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5">
-      <c r="A5" s="26"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="3" t="s">
         <v>170</v>
       </c>
@@ -3674,7 +3674,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5">
-      <c r="A6" s="26"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="3" t="s">
         <v>171</v>
       </c>
@@ -3687,7 +3687,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5">
-      <c r="A7" s="26"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
@@ -3711,18 +3711,18 @@
       <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" ht="16.5">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:5" ht="16.5">
-      <c r="A10" s="26"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="5" t="s">
         <v>22</v>
       </c>
@@ -3735,7 +3735,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5">
-      <c r="A11" s="26"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
@@ -3748,16 +3748,16 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5">
-      <c r="A12" s="26"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
     </row>
     <row r="13" spans="1:5" ht="16.5">
-      <c r="A13" s="26"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
@@ -3766,7 +3766,7 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="16.5">
-      <c r="A14" s="27"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="7" t="s">
         <v>36</v>
       </c>

--- a/接口文档/订单api/订单api-商户端.xlsx
+++ b/接口文档/订单api/订单api-商户端.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13050" activeTab="2"/>
+    <workbookView windowWidth="21015" windowHeight="8790" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
   <si>
     <t>订单接口（APP端）
 版本：1.0
@@ -51,6 +51,9 @@
     <t>接口地址：</t>
   </si>
   <si>
+    <t>http://192.168.1.117/api/order_edit/v1/orderList?page=1&amp;size=5&amp;status=1&amp;sellerId=1</t>
+  </si>
+  <si>
     <t>请求方式：</t>
   </si>
   <si>
@@ -88,6 +91,12 @@
   </si>
   <si>
     <t>每页显示条数</t>
+  </si>
+  <si>
+    <t>sellerId</t>
+  </si>
+  <si>
+    <t>小区ID</t>
   </si>
   <si>
     <t>status</t>
@@ -101,7 +110,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1 </t>
     </r>
@@ -127,7 +136,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2 </t>
     </r>
@@ -146,22 +155,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Microsoft YaHei"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>交易成功</t>
+      <t>已签收</t>
     </r>
   </si>
   <si>
@@ -176,7 +179,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">4 </t>
     </r>
@@ -199,7 +202,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">5 </t>
     </r>
@@ -497,6 +500,9 @@
 </t>
   </si>
   <si>
+    <t>http://192.168.1.117/api/order_edit/v1/{order_code}/{sellerId}</t>
+  </si>
+  <si>
     <t>order_code</t>
   </si>
   <si>
@@ -670,29 +676,19 @@
   </si>
   <si>
     <t xml:space="preserve">        "modifyTime": 1478696674913</t>
-  </si>
-  <si>
-    <t>sellerId</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>小区ID</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.117/api/order_edit/v1/orderList?page=1&amp;size=5&amp;status=1&amp;sellerId=1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.1.117/api/order_edit/v1/{order_code}/{sellerId}</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,7 +727,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -747,6 +743,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -756,18 +852,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,8 +912,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -909,56 +1227,331 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -968,67 +1561,60 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1318,7 +1904,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="H17:O34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1328,221 +1915,222 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="17" spans="8:15">
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
     </row>
     <row r="18" spans="8:15">
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
     </row>
     <row r="19" spans="8:15">
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
     </row>
     <row r="20" spans="8:15">
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
     </row>
     <row r="21" spans="8:15">
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
     </row>
     <row r="22" spans="8:15">
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
     </row>
     <row r="23" spans="8:15">
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
     </row>
     <row r="24" spans="8:15">
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
     </row>
     <row r="25" spans="8:15">
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
     </row>
     <row r="26" spans="8:15">
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
     </row>
     <row r="27" spans="8:15">
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
     </row>
     <row r="28" spans="8:15">
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
     </row>
     <row r="29" spans="8:15">
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
     </row>
     <row r="30" spans="8:15">
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
     </row>
     <row r="31" spans="8:15">
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
     </row>
     <row r="32" spans="8:15">
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
     </row>
     <row r="33" spans="8:15">
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
     </row>
     <row r="34" spans="8:15">
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H17:O34"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1550,7 +2138,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -1558,7 +2146,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1566,25 +2154,26 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -1593,1594 +2182,1595 @@
     <col min="5" max="5" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" ht="15" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" ht="15">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" ht="15" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="15">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" ht="15" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="15">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" ht="15" spans="1:7">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5">
-      <c r="A6" s="17"/>
-      <c r="B6" s="8" t="s">
+      <c r="E5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5">
-      <c r="A7" s="17"/>
-      <c r="B7" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="D6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
+      <c r="A7" s="10"/>
+      <c r="B7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="D7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
+      <c r="A8" s="10"/>
+      <c r="B8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5">
-      <c r="A9" s="16" t="s">
+      <c r="D8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
+      <c r="A10" s="10"/>
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="25" t="s">
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
+      <c r="A11" s="10"/>
+      <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="9" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="7" t="s">
+      <c r="F11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5">
-      <c r="A14" s="18"/>
-      <c r="B14" s="7" t="s">
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
+      <c r="A12" s="10"/>
+      <c r="B12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7" t="s">
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:7">
+      <c r="A13" s="10"/>
+      <c r="B13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" ht="16.5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:7">
+      <c r="A14" s="21"/>
+      <c r="B14" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" ht="16.5" spans="1:7">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7" t="s">
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" ht="16.5" spans="1:7">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" ht="16.5" spans="1:7">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" ht="16.5" spans="1:7">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" ht="16.5" spans="1:7">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" ht="16.5" spans="1:7">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" ht="16.5" spans="1:7">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" ht="16.5" spans="1:7">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="20"/>
+      <c r="B49" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="20"/>
+      <c r="B56" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="20"/>
+      <c r="B58" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="20"/>
+      <c r="B59" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="20"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="20"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="20"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="20"/>
+      <c r="B65" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="20"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="20"/>
+      <c r="B66" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="20"/>
+      <c r="B67" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
+      <c r="C67" s="20"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="20"/>
+      <c r="B68" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7" t="s">
+      <c r="C68" s="20"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="20"/>
+      <c r="B69" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7" t="s">
+      <c r="C69" s="20"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="20"/>
+      <c r="B70" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7" t="s">
+      <c r="C70" s="20"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="20"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="20"/>
+      <c r="B71" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="20"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="20"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="20"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="20"/>
+      <c r="B72" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7" t="s">
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="20"/>
+      <c r="B73" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="20"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="20"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7" t="s">
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7" t="s">
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" t="s">
         <v>59</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7" t="s">
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" t="s">
         <v>60</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="7"/>
-      <c r="B66" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="7"/>
-      <c r="B69" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="7"/>
-      <c r="B71" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="7"/>
-      <c r="B72" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="B74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="B75" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="B76" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="B77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="B78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="B79" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="B80" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86" spans="2:2">
       <c r="B86" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="2:2">
       <c r="B104" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="2:2">
       <c r="B106" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="2:2">
       <c r="B107" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="2:2">
       <c r="B108" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="2:2">
       <c r="B116" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="2:2">
       <c r="B117" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="124" spans="2:2">
       <c r="B124" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="125" spans="2:2">
       <c r="B125" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="2:2">
       <c r="B126" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127" spans="2:2">
       <c r="B127" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128" spans="2:2">
       <c r="B128" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="2:2">
       <c r="B129" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="130" spans="2:2">
       <c r="B130" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="2:2">
       <c r="B131" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="132" spans="2:2">
       <c r="B132" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" spans="2:2">
       <c r="B133" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="134" spans="2:2">
       <c r="B134" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="135" spans="2:2">
       <c r="B135" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="2:2">
       <c r="B136" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="2:2">
       <c r="B137" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="138" spans="2:2">
       <c r="B138" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="139" spans="2:2">
       <c r="B139" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="142" spans="2:2">
       <c r="B142" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="143" spans="2:2">
       <c r="B143" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="144" spans="2:2">
       <c r="B144" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="2:2">
       <c r="B145" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="146" spans="2:2">
       <c r="B146" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="147" spans="2:2">
       <c r="B147" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="148" spans="2:2">
       <c r="B148" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="149" spans="2:2">
       <c r="B149" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="150" spans="2:2">
       <c r="B150" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="2:2">
       <c r="B151" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="152" spans="2:2">
       <c r="B152" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="153" spans="2:2">
       <c r="B153" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154" spans="2:2">
       <c r="B154" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="155" spans="2:2">
       <c r="B155" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="156" spans="2:2">
       <c r="B156" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="157" spans="2:2">
       <c r="B157" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="158" spans="2:2">
       <c r="B158" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="159" spans="2:2">
       <c r="B159" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="2:2">
       <c r="B160" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="2:2">
       <c r="B161" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="2:2">
       <c r="B162" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="163" spans="2:2">
       <c r="B163" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="2:2">
       <c r="B168" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="169" spans="2:2">
       <c r="B169" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="2:2">
       <c r="B170" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="171" spans="2:2">
       <c r="B171" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="2:2">
       <c r="B172" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="173" spans="2:2">
       <c r="B173" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="175" spans="2:2">
       <c r="B175" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="176" spans="2:2">
       <c r="B176" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="177" spans="2:2">
       <c r="B177" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178" spans="2:2">
       <c r="B178" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" spans="2:2">
       <c r="B179" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="180" spans="2:2">
       <c r="B180" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="181" spans="2:2">
       <c r="B181" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="182" spans="2:2">
       <c r="B182" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="183" spans="2:2">
       <c r="B183" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="184" spans="2:2">
       <c r="B184" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="185" spans="2:2">
       <c r="B185" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="186" spans="2:2">
       <c r="B186" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="2:2">
       <c r="B187" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="188" spans="2:2">
       <c r="B188" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="189" spans="2:2">
       <c r="B189" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="190" spans="2:2">
       <c r="B190" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="191" spans="2:2">
       <c r="B191" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="192" spans="2:2">
       <c r="B192" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="193" spans="2:2">
       <c r="B193" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194" spans="2:2">
       <c r="B194" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="195" spans="2:2">
       <c r="B195" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="196" spans="2:2">
       <c r="B196" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="197" spans="2:2">
       <c r="B197" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="198" spans="2:2">
       <c r="B198" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="199" spans="2:2">
       <c r="B199" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="200" spans="2:2">
       <c r="B200" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="201" spans="2:2">
       <c r="B201" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="202" spans="2:2">
       <c r="B202" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="203" spans="2:2">
       <c r="B203" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="204" spans="2:2">
       <c r="B204" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="209" spans="2:2">
       <c r="B209" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="210" spans="2:2">
       <c r="B210" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="211" spans="2:2">
       <c r="B211" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="212" spans="2:2">
       <c r="B212" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A14"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A14"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://192.168.1.117/api/order_edit/v1/orderList?page=1&amp;size=5&amp;status=1" display="http://192.168.1.117/api/order_edit/v1/orderList?page=1&amp;size=5&amp;status=1"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/order_edit/v1/orderList?page=1&amp;size=5&amp;status=1&amp;sellerId=1" tooltip="http://192.168.1.117/api/order_edit/v1/orderList?page=1&amp;size=5&amp;status=1"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="16.75" customWidth="1"/>
@@ -3189,417 +3779,418 @@
     <col min="5" max="5" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" ht="15">
+      <c r="B1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="15" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" ht="15">
+        <v>132</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" ht="15" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="16" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" ht="15" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="D5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5">
-      <c r="A7" s="16" t="s">
+      <c r="D6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8" s="10"/>
+      <c r="B8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:5" ht="16.5">
-      <c r="A8" s="17"/>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="25" t="s">
+    <row r="9" ht="16.5" spans="1:5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:5" ht="16.5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5">
-      <c r="A12" s="18"/>
-      <c r="B12" s="7" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" ht="16.5" spans="1:5">
+      <c r="A11" s="10"/>
+      <c r="B11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" ht="16.5" spans="1:5">
+      <c r="A12" s="21"/>
+      <c r="B12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A12"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A12"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://192.168.1.117/api/order_edit/v1/{order_code}" display="http://192.168.1.117/api/order_edit/v1/{order_code}"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/order_edit/v1/{order_code}/{sellerId}" tooltip="http://192.168.1.117/api/order_edit/v1/{order_code}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.375" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
@@ -3608,427 +4199,427 @@
     <col min="5" max="5" width="29.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" ht="15" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" ht="15">
+      <c r="B1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="15" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" ht="15">
+      <c r="B2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" ht="15" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" ht="15" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5">
-      <c r="A6" s="17"/>
-      <c r="B6" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5">
-      <c r="A7" s="17"/>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="D5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="29" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" spans="1:5" ht="16.5">
-      <c r="A9" s="16" t="s">
+      <c r="D7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8" s="10"/>
+      <c r="B8" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" ht="16.5" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" ht="16.5" spans="1:5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:5" ht="16.5">
-      <c r="A10" s="17"/>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="25" t="s">
+    <row r="11" ht="16.5" spans="1:5">
+      <c r="A11" s="10"/>
+      <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="16.5">
-      <c r="A14" s="18"/>
-      <c r="B14" s="7" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:5">
+      <c r="A12" s="10"/>
+      <c r="B12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" ht="16.5" spans="1:5">
+      <c r="A13" s="10"/>
+      <c r="B13" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" ht="16.5" spans="1:5">
+      <c r="A14" s="21"/>
+      <c r="B14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="2:2">
       <c r="B54" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="2:2">
       <c r="B57" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="2:2">
       <c r="B58" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="2:2">
       <c r="B59" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="2:2">
       <c r="B60" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:A14"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:A14"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" tooltip="http://192.168.1.117/api/order_edit/v1/deliverGoods/{orderCode}"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.117/api/order_edit/v1/deliverGoods/{orderCode}" tooltip="http://192.168.1.117/api/order_edit/v1/deliverGoods/{orderCode}"/>
   </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>